--- a/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>009686</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>华夏磐利一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009686</t>
+          <t>009893</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合A</t>
+          <t>摩根士丹利华鑫优悦安和混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.71</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>009686</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>华夏磐利一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.41</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>009687</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>华夏磐利一年定期开放混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001608</t>
+          <t>001271</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英大策略优选混合C</t>
+          <t>英大灵活配置混合B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009686</t>
+          <t>004211</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合A</t>
+          <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>100.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -818,26 +938,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009687</t>
+          <t>001608</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合C</t>
+          <t>英大策略优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4687</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1676,4 +1677,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0776</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9445</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2721,4 +2722,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2730,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,17 +2742,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2761,14 +2782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.06</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9093</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2777,14 +2820,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.55</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2793,14 +2858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.47</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2809,13 +2896,2087 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4451</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1340</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6878</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6529</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004274</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4875,7 +4876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4886,17 +4887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4906,14 +4927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.9</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7818</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4922,14 +4965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.06</v>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4938,14 +5003,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.55</v>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4954,14 +5041,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.47</v>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2966</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4970,13 +5079,697 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5652,7 +5653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5663,17 +5664,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5683,14 +5704,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.94</v>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5699,14 +5742,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.9</v>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5715,14 +5780,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.06</v>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3686</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5731,14 +5818,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.55</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3230</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5747,14 +5856,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.47</v>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5763,13 +5894,791 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛积极配置债券</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>4.99</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>4.94</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>20.9</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>14.06</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>2.55</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.47</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -600,6 +617,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>210.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5168</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3399</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013869</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013870</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1491,7 +2362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4411,7 +5282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5455,7 +6326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6157,7 +7028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6517,7 +7388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/002036-联创电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>4.99</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>4.94</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>20.9</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>14.06</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>2.55</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0.47</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -616,7 +633,1145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>205.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8927</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013869</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013870</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +2625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2362,7 +3517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3138,7 +4293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5282,7 +6437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6326,7 +7481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7028,7 +8183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7386,174 +8541,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009686</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏磐利一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3483</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009893</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009687</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏磐利一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>